--- a/results/AutresSorties v ref.xlsx
+++ b/results/AutresSorties v ref.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callonnecg\Desktop\GitHub\ThreeME\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callonnecg\Documents\Github\ThreeME\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80533DD-FB29-4AB7-B2F9-52D1749328E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="30" windowWidth="19140" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investissement choc (2)" sheetId="4" r:id="rId1"/>
@@ -27,17 +28,30 @@
     <sheet name="VA industrielle écart en %" sheetId="13" r:id="rId13"/>
     <sheet name="VA industrielle écart en €2006 " sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gaël CALLONNEC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +80,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gaël CALLONNEC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -100,12 +114,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gaël CALLONNEC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -754,7 +768,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -870,28 +884,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -904,7 +918,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1008,7 +1022,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1112,7 +1125,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1322,7 +1334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1576,7 +1587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1778,12 +1788,12 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1791,10 +1801,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1802,7 +1812,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
@@ -1816,10 +1826,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1843,10 +1859,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1873,7 +1895,13 @@
     <xdr:ext cx="9305192" cy="6081346"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1894,9 +1922,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1934,9 +1962,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1971,7 +1999,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2006,7 +2034,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2179,7 +2207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7208,7 +7236,7 @@
       </c>
       <c r="Q28">
         <f>'Investissement choc'!Q28/'Investissement choc'!Q$46-'INvestissement ref'!Q28/'INvestissement ref'!Q$47</f>
-        <v>-74.472780579618842</v>
+        <v>-74.472780579618828</v>
       </c>
       <c r="R28">
         <f>'Investissement choc'!R28/'Investissement choc'!R$46-'INvestissement ref'!R28/'INvestissement ref'!R$47</f>
@@ -9177,7 +9205,7 @@
         <v>0.82304967577592336</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -9428,7 +9456,7 @@
       </c>
       <c r="Q40" s="4">
         <f t="shared" si="2"/>
-        <v>55.942051205469475</v>
+        <v>55.942051205469504</v>
       </c>
       <c r="R40" s="4">
         <f t="shared" si="2"/>
@@ -9992,7 +10020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14950,7 +14978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19910,7 +19938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26625,10 +26653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG16" workbookViewId="0">
+    <sheetView topLeftCell="AG16" workbookViewId="0">
       <selection activeCell="AT1" sqref="AT1:AU48"/>
     </sheetView>
   </sheetViews>
@@ -26878,15 +26906,15 @@
         <v>62.153304865344303</v>
       </c>
       <c r="AN2" s="4">
-        <f>SUM(Y2,AD2:AG2,AI2:AM2)</f>
+        <f t="shared" ref="AN2:AN46" si="0">SUM(Y2,AD2:AG2,AI2:AM2)</f>
         <v>696.22626447714538</v>
       </c>
       <c r="AO2">
-        <f>AN2*AP2</f>
+        <f t="shared" ref="AO2:AO46" si="1">AN2*AP2</f>
         <v>669.19095009337286</v>
       </c>
       <c r="AP2">
-        <f>AT2</f>
+        <f t="shared" ref="AP2:AP11" si="2">AT2</f>
         <v>0.96116878123798499</v>
       </c>
       <c r="AS2">
@@ -27018,15 +27046,15 @@
         <v>63.131871358466199</v>
       </c>
       <c r="AN3" s="4">
-        <f>SUM(Y3,AD3:AG3,AI3:AM3)</f>
+        <f t="shared" si="0"/>
         <v>707.18792927557922</v>
       </c>
       <c r="AO3">
-        <f>AN3*AP3</f>
+        <f t="shared" si="1"/>
         <v>693.32149928978345</v>
       </c>
       <c r="AP3">
-        <f>AT3</f>
+        <f t="shared" si="2"/>
         <v>0.98039215686274495</v>
       </c>
       <c r="AS3">
@@ -27158,15 +27186,15 @@
         <v>64.205498950000006</v>
       </c>
       <c r="AN4" s="4">
-        <f>SUM(Y4,AD4:AG4,AI4:AM4)</f>
+        <f t="shared" si="0"/>
         <v>720.36422991599989</v>
       </c>
       <c r="AO4">
-        <f>AN4*AP4</f>
+        <f t="shared" si="1"/>
         <v>720.05473911153683</v>
       </c>
       <c r="AP4">
-        <f>AT4</f>
+        <f t="shared" si="2"/>
         <v>0.99957036899999996</v>
       </c>
       <c r="AS4">
@@ -27298,15 +27326,15 @@
         <v>82.411769329999998</v>
       </c>
       <c r="AN5" s="4">
-        <f>SUM(Y5,AD5:AG5,AI5:AM5)</f>
+        <f t="shared" si="0"/>
         <v>775.35714387600001</v>
       </c>
       <c r="AO5">
-        <f>AN5*AP5</f>
+        <f t="shared" si="1"/>
         <v>793.58844127459963</v>
       </c>
       <c r="AP5">
-        <f>AT5</f>
+        <f t="shared" si="2"/>
         <v>1.0235134189999999</v>
       </c>
       <c r="AS5">
@@ -27438,15 +27466,15 @@
         <v>113.9033883</v>
       </c>
       <c r="AN6" s="4">
-        <f>SUM(Y6,AD6:AG6,AI6:AM6)</f>
+        <f t="shared" si="0"/>
         <v>857.91707440300002</v>
       </c>
       <c r="AO6">
-        <f>AN6*AP6</f>
+        <f t="shared" si="1"/>
         <v>890.2650942105704</v>
       </c>
       <c r="AP6">
-        <f>AT6</f>
+        <f t="shared" si="2"/>
         <v>1.037705299</v>
       </c>
       <c r="AS6">
@@ -27578,15 +27606,15 @@
         <v>158.74782250000001</v>
       </c>
       <c r="AN7" s="4">
-        <f>SUM(Y7,AD7:AG7,AI7:AM7)</f>
+        <f t="shared" si="0"/>
         <v>936.44704737500001</v>
       </c>
       <c r="AO7">
-        <f>AN7*AP7</f>
+        <f t="shared" si="1"/>
         <v>980.32390669251311</v>
       </c>
       <c r="AP7">
-        <f>AT7</f>
+        <f t="shared" si="2"/>
         <v>1.0468546080000001</v>
       </c>
       <c r="AS7">
@@ -27718,15 +27746,15 @@
         <v>232.34208050000001</v>
       </c>
       <c r="AN8" s="4">
-        <f>SUM(Y8,AD8:AG8,AI8:AM8)</f>
+        <f t="shared" si="0"/>
         <v>1084.425143596</v>
       </c>
       <c r="AO8">
-        <f>AN8*AP8</f>
+        <f t="shared" si="1"/>
         <v>1142.948109279668</v>
       </c>
       <c r="AP8">
-        <f>AT8</f>
+        <f t="shared" si="2"/>
         <v>1.0539668099999999</v>
       </c>
       <c r="AS8">
@@ -27858,15 +27886,15 @@
         <v>282.11679349999997</v>
       </c>
       <c r="AN9" s="4">
-        <f>SUM(Y9,AD9:AG9,AI9:AM9)</f>
+        <f t="shared" si="0"/>
         <v>1229.6888505519998</v>
       </c>
       <c r="AO9">
-        <f>AN9*AP9</f>
+        <f t="shared" si="1"/>
         <v>1303.3861987553826</v>
       </c>
       <c r="AP9">
-        <f>AT9</f>
+        <f t="shared" si="2"/>
         <v>1.059931704</v>
       </c>
       <c r="AS9">
@@ -27998,15 +28026,15 @@
         <v>315.0107893</v>
       </c>
       <c r="AN10" s="4">
-        <f>SUM(Y10,AD10:AG10,AI10:AM10)</f>
+        <f t="shared" si="0"/>
         <v>1368.2766782239999</v>
       </c>
       <c r="AO10">
-        <f>AN10*AP10</f>
+        <f t="shared" si="1"/>
         <v>1451.6466341376656</v>
       </c>
       <c r="AP10">
-        <f>AT10</f>
+        <f t="shared" si="2"/>
         <v>1.0609306270000001</v>
       </c>
       <c r="AS10">
@@ -28138,15 +28166,15 @@
         <v>341.72023350000001</v>
       </c>
       <c r="AN11" s="4">
-        <f>SUM(Y11,AD11:AG11,AI11:AM11)</f>
+        <f t="shared" si="0"/>
         <v>1516.762358164</v>
       </c>
       <c r="AO11">
-        <f>AN11*AP11</f>
+        <f t="shared" si="1"/>
         <v>1611.4945208511988</v>
       </c>
       <c r="AP11">
-        <f>AT11</f>
+        <f t="shared" si="2"/>
         <v>1.062456826</v>
       </c>
       <c r="AQ11" s="4" t="s">
@@ -28285,15 +28313,15 @@
         <v>368.58802759999998</v>
       </c>
       <c r="AN12" s="4">
-        <f>SUM(Y12,AD12:AG12,AI12:AM12)</f>
+        <f t="shared" si="0"/>
         <v>1704.5516076610002</v>
       </c>
       <c r="AO12">
-        <f>AN12*AP12</f>
+        <f t="shared" si="1"/>
         <v>1811.0124908287034</v>
       </c>
       <c r="AP12">
-        <f>AP11</f>
+        <f t="shared" ref="AP12:AP46" si="3">AP11</f>
         <v>1.062456826</v>
       </c>
       <c r="AQ12" s="4" t="s">
@@ -28432,15 +28460,15 @@
         <v>397.00126189999997</v>
       </c>
       <c r="AN13" s="4">
-        <f>SUM(Y13,AD13:AG13,AI13:AM13)</f>
+        <f t="shared" si="0"/>
         <v>1948.6167242779998</v>
       </c>
       <c r="AO13">
-        <f>AN13*AP13</f>
+        <f t="shared" si="1"/>
         <v>2070.3211399669208</v>
       </c>
       <c r="AP13">
-        <f>AP12</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS13">
@@ -28572,15 +28600,15 @@
         <v>423.75502920000002</v>
       </c>
       <c r="AN14" s="4">
-        <f>SUM(Y14,AD14:AG14,AI14:AM14)</f>
+        <f t="shared" si="0"/>
         <v>2267.1620690609998</v>
       </c>
       <c r="AO14">
-        <f>AN14*AP14</f>
+        <f t="shared" si="1"/>
         <v>2408.7618159221429</v>
       </c>
       <c r="AP14">
-        <f>AP13</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS14">
@@ -28712,15 +28740,15 @@
         <v>447.28058670000001</v>
       </c>
       <c r="AN15" s="4">
-        <f>SUM(Y15,AD15:AG15,AI15:AM15)</f>
+        <f t="shared" si="0"/>
         <v>2637.4339406110003</v>
       </c>
       <c r="AO15">
-        <f>AN15*AP15</f>
+        <f t="shared" si="1"/>
         <v>2802.1596933262358</v>
       </c>
       <c r="AP15">
-        <f>AP14</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS15">
@@ -28852,15 +28880,15 @@
         <v>465.77478070000001</v>
       </c>
       <c r="AN16" s="4">
-        <f>SUM(Y16,AD16:AG16,AI16:AM16)</f>
+        <f t="shared" si="0"/>
         <v>3066.7070016320004</v>
       </c>
       <c r="AO16">
-        <f>AN16*AP16</f>
+        <f t="shared" si="1"/>
         <v>3258.243787225912</v>
       </c>
       <c r="AP16">
-        <f>AP15</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS16">
@@ -28992,15 +29020,15 @@
         <v>477.24884029999998</v>
       </c>
       <c r="AN17" s="4">
-        <f>SUM(Y17,AD17:AG17,AI17:AM17)</f>
+        <f t="shared" si="0"/>
         <v>3558.428048537</v>
       </c>
       <c r="AO17">
-        <f>AN17*AP17</f>
+        <f t="shared" si="1"/>
         <v>3780.6761699979952</v>
       </c>
       <c r="AP17">
-        <f>AP16</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS17">
@@ -29132,15 +29160,15 @@
         <v>479.92506229999998</v>
       </c>
       <c r="AN18" s="4">
-        <f>SUM(Y18,AD18:AG18,AI18:AM18)</f>
+        <f t="shared" si="0"/>
         <v>4107.9863008740003</v>
       </c>
       <c r="AO18">
-        <f>AN18*AP18</f>
+        <f t="shared" si="1"/>
         <v>4364.5580864780713</v>
       </c>
       <c r="AP18">
-        <f>AP17</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS18">
@@ -29272,15 +29300,15 @@
         <v>497.68498319999998</v>
       </c>
       <c r="AN19" s="4">
-        <f>SUM(Y19,AD19:AG19,AI19:AM19)</f>
+        <f t="shared" si="0"/>
         <v>4719.8094932289996</v>
       </c>
       <c r="AO19">
-        <f>AN19*AP19</f>
+        <f t="shared" si="1"/>
         <v>5014.5938135007518</v>
       </c>
       <c r="AP19">
-        <f>AP18</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS19">
@@ -29412,15 +29440,15 @@
         <v>519.39740529999995</v>
       </c>
       <c r="AN20" s="4">
-        <f>SUM(Y20,AD20:AG20,AI20:AM20)</f>
+        <f t="shared" si="0"/>
         <v>5379.3490910820001</v>
       </c>
       <c r="AO20">
-        <f>AN20*AP20</f>
+        <f t="shared" si="1"/>
         <v>5715.3261612569668</v>
       </c>
       <c r="AP20">
-        <f>AP19</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS20">
@@ -29552,15 +29580,15 @@
         <v>542.25885219999998</v>
       </c>
       <c r="AN21" s="4">
-        <f>SUM(Y21,AD21:AG21,AI21:AM21)</f>
+        <f t="shared" si="0"/>
         <v>6077.0804560000006</v>
       </c>
       <c r="AO21">
-        <f>AN21*AP21</f>
+        <f t="shared" si="1"/>
         <v>6456.6356126283936</v>
       </c>
       <c r="AP21">
-        <f>AP20</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS21">
@@ -29692,15 +29720,15 @@
         <v>566.18887359999997</v>
       </c>
       <c r="AN22" s="4">
-        <f>SUM(Y22,AD22:AG22,AI22:AM22)</f>
+        <f t="shared" si="0"/>
         <v>6795.1887300529997</v>
       </c>
       <c r="AO22">
-        <f>AN22*AP22</f>
+        <f t="shared" si="1"/>
         <v>7219.5946502030811</v>
       </c>
       <c r="AP22">
-        <f>AP21</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS22">
@@ -29832,15 +29860,15 @@
         <v>591.80487530000005</v>
       </c>
       <c r="AN23" s="4">
-        <f>SUM(Y23,AD23:AG23,AI23:AM23)</f>
+        <f t="shared" si="0"/>
         <v>7508.9290443370019</v>
       </c>
       <c r="AO23">
-        <f>AN23*AP23</f>
+        <f t="shared" si="1"/>
         <v>7977.9129191055044</v>
       </c>
       <c r="AP23">
-        <f>AP22</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS23">
@@ -29972,15 +30000,15 @@
         <v>598.19563010000002</v>
       </c>
       <c r="AN24" s="4">
-        <f>SUM(Y24,AD24:AG24,AI24:AM24)</f>
+        <f t="shared" si="0"/>
         <v>8062.3613610020011</v>
       </c>
       <c r="AO24">
-        <f>AN24*AP24</f>
+        <f t="shared" si="1"/>
         <v>8565.9108616752255</v>
       </c>
       <c r="AP24">
-        <f>AP23</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS24">
@@ -30112,15 +30140,15 @@
         <v>594.91645759999994</v>
       </c>
       <c r="AN25" s="4">
-        <f>SUM(Y25,AD25:AG25,AI25:AM25)</f>
+        <f t="shared" si="0"/>
         <v>8539.3492398669987</v>
       </c>
       <c r="AO25">
-        <f>AN25*AP25</f>
+        <f t="shared" si="1"/>
         <v>9072.6898894946044</v>
       </c>
       <c r="AP25">
-        <f>AP24</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS25">
@@ -30252,15 +30280,15 @@
         <v>588.50176839999995</v>
       </c>
       <c r="AN26" s="4">
-        <f>SUM(Y26,AD26:AG26,AI26:AM26)</f>
+        <f t="shared" si="0"/>
         <v>9005.1874497000008</v>
       </c>
       <c r="AO26">
-        <f>AN26*AP26</f>
+        <f t="shared" si="1"/>
         <v>9567.622875343297</v>
       </c>
       <c r="AP26">
-        <f>AP25</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS26">
@@ -30392,15 +30420,15 @@
         <v>581.41753719999997</v>
       </c>
       <c r="AN27" s="4">
-        <f>SUM(Y27,AD27:AG27,AI27:AM27)</f>
+        <f t="shared" si="0"/>
         <v>9426.9229920180005</v>
       </c>
       <c r="AO27">
-        <f>AN27*AP27</f>
+        <f t="shared" si="1"/>
         <v>10015.698681045867</v>
       </c>
       <c r="AP27">
-        <f>AP26</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS27">
@@ -30532,15 +30560,15 @@
         <v>614.45277399999998</v>
       </c>
       <c r="AN28" s="4">
-        <f>SUM(Y28,AD28:AG28,AI28:AM28)</f>
+        <f t="shared" si="0"/>
         <v>9822.2193502919999</v>
       </c>
       <c r="AO28">
-        <f>AN28*AP28</f>
+        <f t="shared" si="1"/>
         <v>10435.683995187021</v>
       </c>
       <c r="AP28">
-        <f>AP27</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS28">
@@ -30672,15 +30700,15 @@
         <v>622.03449260000002</v>
       </c>
       <c r="AN29" s="4">
-        <f>SUM(Y29,AD29:AG29,AI29:AM29)</f>
+        <f t="shared" si="0"/>
         <v>10104.747706935999</v>
       </c>
       <c r="AO29">
-        <f>AN29*AP29</f>
+        <f t="shared" si="1"/>
         <v>10735.858176242</v>
       </c>
       <c r="AP29">
-        <f>AP28</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS29">
@@ -30812,15 +30840,15 @@
         <v>615.82133229999999</v>
       </c>
       <c r="AN30" s="4">
-        <f>SUM(Y30,AD30:AG30,AI30:AM30)</f>
+        <f t="shared" si="0"/>
         <v>10350.793838337</v>
       </c>
       <c r="AO30">
-        <f>AN30*AP30</f>
+        <f t="shared" si="1"/>
         <v>10997.271568059887</v>
       </c>
       <c r="AP30">
-        <f>AP29</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS30">
@@ -30952,15 +30980,15 @@
         <v>603.35329650000006</v>
       </c>
       <c r="AN31" s="4">
-        <f>SUM(Y31,AD31:AG31,AI31:AM31)</f>
+        <f t="shared" si="0"/>
         <v>10587.135761105001</v>
       </c>
       <c r="AO31">
-        <f>AN31*AP31</f>
+        <f t="shared" si="1"/>
         <v>11248.374657174714</v>
       </c>
       <c r="AP31">
-        <f>AP30</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS31">
@@ -31092,15 +31120,15 @@
         <v>588.15074289999995</v>
       </c>
       <c r="AN32" s="4">
-        <f>SUM(Y32,AD32:AG32,AI32:AM32)</f>
+        <f t="shared" si="0"/>
         <v>10822.832324385998</v>
       </c>
       <c r="AO32">
-        <f>AN32*AP32</f>
+        <f t="shared" si="1"/>
         <v>11498.79207969735</v>
       </c>
       <c r="AP32">
-        <f>AP31</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS32">
@@ -31232,15 +31260,15 @@
         <v>571.70635830000003</v>
       </c>
       <c r="AN33" s="4">
-        <f>SUM(Y33,AD33:AG33,AI33:AM33)</f>
+        <f t="shared" si="0"/>
         <v>11062.097903663001</v>
       </c>
       <c r="AO33">
-        <f>AN33*AP33</f>
+        <f t="shared" si="1"/>
         <v>11753.001427627047</v>
       </c>
       <c r="AP33">
-        <f>AP32</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS33">
@@ -31372,15 +31400,15 @@
         <v>557.7138142</v>
       </c>
       <c r="AN34" s="4">
-        <f>SUM(Y34,AD34:AG34,AI34:AM34)</f>
+        <f t="shared" si="0"/>
         <v>11103.109444836</v>
       </c>
       <c r="AO34">
-        <f>AN34*AP34</f>
+        <f t="shared" si="1"/>
         <v>11796.574419491079</v>
       </c>
       <c r="AP34">
-        <f>AP33</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS34">
@@ -31512,15 +31540,15 @@
         <v>544.42004199999997</v>
       </c>
       <c r="AN35" s="4">
-        <f>SUM(Y35,AD35:AG35,AI35:AM35)</f>
+        <f t="shared" si="0"/>
         <v>11060.999209588799</v>
       </c>
       <c r="AO35">
-        <f>AN35*AP35</f>
+        <f t="shared" si="1"/>
         <v>11751.834112608225</v>
       </c>
       <c r="AP35">
-        <f>AP34</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS35">
@@ -31652,15 +31680,15 @@
         <v>531.31402460000004</v>
       </c>
       <c r="AN36" s="4">
-        <f>SUM(Y36,AD36:AG36,AI36:AM36)</f>
+        <f t="shared" si="0"/>
         <v>10980.046862246803</v>
       </c>
       <c r="AO36">
-        <f>AN36*AP36</f>
+        <f t="shared" si="1"/>
         <v>11665.825738593998</v>
       </c>
       <c r="AP36">
-        <f>AP35</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS36">
@@ -31792,15 +31820,15 @@
         <v>518.70022510000001</v>
       </c>
       <c r="AN37" s="4">
-        <f>SUM(Y37,AD37:AG37,AI37:AM37)</f>
+        <f t="shared" si="0"/>
         <v>10886.603682695297</v>
       </c>
       <c r="AO37">
-        <f>AN37*AP37</f>
+        <f t="shared" si="1"/>
         <v>11566.546394636356</v>
       </c>
       <c r="AP37">
-        <f>AP36</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS37">
@@ -31932,15 +31960,15 @@
         <v>506.49168550000002</v>
       </c>
       <c r="AN38" s="4">
-        <f>SUM(Y38,AD38:AG38,AI38:AM38)</f>
+        <f t="shared" si="0"/>
         <v>10784.229806507001</v>
       </c>
       <c r="AO38">
-        <f>AN38*AP38</f>
+        <f t="shared" si="1"/>
         <v>11457.778571076022</v>
       </c>
       <c r="AP38">
-        <f>AP37</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS38">
@@ -32072,15 +32100,15 @@
         <v>494.58173679999999</v>
       </c>
       <c r="AN39" s="4">
-        <f>SUM(Y39,AD39:AG39,AI39:AM39)</f>
+        <f t="shared" si="0"/>
         <v>10673.989031736302</v>
       </c>
       <c r="AO39">
-        <f>AN39*AP39</f>
+        <f t="shared" si="1"/>
         <v>11340.652507417366</v>
       </c>
       <c r="AP39">
-        <f>AP38</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS39">
@@ -32212,15 +32240,15 @@
         <v>482.92093290000003</v>
       </c>
       <c r="AN40" s="4">
-        <f>SUM(Y40,AD40:AG40,AI40:AM40)</f>
+        <f t="shared" si="0"/>
         <v>10556.8894817454</v>
       </c>
       <c r="AO40">
-        <f>AN40*AP40</f>
+        <f t="shared" si="1"/>
         <v>11216.239291208003</v>
       </c>
       <c r="AP40">
-        <f>AP39</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS40">
@@ -32352,15 +32380,15 @@
         <v>471.48438850000002</v>
       </c>
       <c r="AN41" s="4">
-        <f>SUM(Y41,AD41:AG41,AI41:AM41)</f>
+        <f t="shared" si="0"/>
         <v>10433.854863134602</v>
       </c>
       <c r="AO41">
-        <f>AN41*AP41</f>
+        <f t="shared" si="1"/>
         <v>11085.520320830654</v>
       </c>
       <c r="AP41">
-        <f>AP40</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS41">
@@ -32492,15 +32520,15 @@
         <v>460.25607559999997</v>
       </c>
       <c r="AN42" s="4">
-        <f>SUM(Y42,AD42:AG42,AI42:AM42)</f>
+        <f t="shared" si="0"/>
         <v>10305.6884374649</v>
       </c>
       <c r="AO42">
-        <f>AN42*AP42</f>
+        <f t="shared" si="1"/>
         <v>10949.349027013857</v>
       </c>
       <c r="AP42">
-        <f>AP41</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS42">
@@ -32632,15 +32660,15 @@
         <v>449.22499440000001</v>
       </c>
       <c r="AN43" s="4">
-        <f>SUM(Y43,AD43:AG43,AI43:AM43)</f>
+        <f t="shared" si="0"/>
         <v>10173.1186810327</v>
       </c>
       <c r="AO43">
-        <f>AN43*AP43</f>
+        <f t="shared" si="1"/>
         <v>10808.499384371309</v>
       </c>
       <c r="AP43">
-        <f>AP42</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS43">
@@ -32772,15 +32800,15 @@
         <v>438.38472309999997</v>
       </c>
       <c r="AN44" s="4">
-        <f>SUM(Y44,AD44:AG44,AI44:AM44)</f>
+        <f t="shared" si="0"/>
         <v>10036.848419980703</v>
       </c>
       <c r="AO44">
-        <f>AN44*AP44</f>
+        <f t="shared" si="1"/>
         <v>10663.718115335812</v>
       </c>
       <c r="AP44">
-        <f>AP43</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS44">
@@ -32912,15 +32940,15 @@
         <v>427.73325510000001</v>
       </c>
       <c r="AN45" s="4">
-        <f>SUM(Y45,AD45:AG45,AI45:AM45)</f>
+        <f t="shared" si="0"/>
         <v>9897.5830556659021</v>
       </c>
       <c r="AO45">
-        <f>AN45*AP45</f>
+        <f t="shared" si="1"/>
         <v>10515.754678394176</v>
       </c>
       <c r="AP45">
-        <f>AP44</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS45">
@@ -33052,15 +33080,15 @@
         <v>417.2725026</v>
       </c>
       <c r="AN46" s="4">
-        <f>SUM(Y46,AD46:AG46,AI46:AM46)</f>
+        <f t="shared" si="0"/>
         <v>9756.0398721458005</v>
       </c>
       <c r="AO46">
-        <f>AN46*AP46</f>
+        <f t="shared" si="1"/>
         <v>10365.371156889472</v>
       </c>
       <c r="AP46">
-        <f>AP45</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS46">
@@ -33337,7 +33365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView topLeftCell="AE15" workbookViewId="0">
@@ -40048,7 +40076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AU48"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -40301,15 +40329,15 @@
         <v>62.153304865344303</v>
       </c>
       <c r="AN2" s="4">
-        <f>SUM(Y2,AD2:AG2,AI2:AM2)</f>
+        <f t="shared" ref="AN2:AN46" si="0">SUM(Y2,AD2:AG2,AI2:AM2)</f>
         <v>696.22626447714538</v>
       </c>
       <c r="AO2">
-        <f>AN2*AP2</f>
+        <f t="shared" ref="AO2:AO46" si="1">AN2*AP2</f>
         <v>669.19095009337286</v>
       </c>
       <c r="AP2">
-        <f>AT2</f>
+        <f t="shared" ref="AP2:AP11" si="2">AT2</f>
         <v>0.96116878123798499</v>
       </c>
       <c r="AS2">
@@ -40441,15 +40469,15 @@
         <v>63.131871358466199</v>
       </c>
       <c r="AN3" s="4">
-        <f>SUM(Y3,AD3:AG3,AI3:AM3)</f>
+        <f t="shared" si="0"/>
         <v>707.18792927557922</v>
       </c>
       <c r="AO3">
-        <f>AN3*AP3</f>
+        <f t="shared" si="1"/>
         <v>693.32149928978345</v>
       </c>
       <c r="AP3">
-        <f>AT3</f>
+        <f t="shared" si="2"/>
         <v>0.98039215686274495</v>
       </c>
       <c r="AS3">
@@ -40581,15 +40609,15 @@
         <v>64.205498950000006</v>
       </c>
       <c r="AN4" s="4">
-        <f>SUM(Y4,AD4:AG4,AI4:AM4)</f>
+        <f t="shared" si="0"/>
         <v>720.36422991599989</v>
       </c>
       <c r="AO4">
-        <f>AN4*AP4</f>
+        <f t="shared" si="1"/>
         <v>720.05473911153683</v>
       </c>
       <c r="AP4">
-        <f>AT4</f>
+        <f t="shared" si="2"/>
         <v>0.99957036899999996</v>
       </c>
       <c r="AS4">
@@ -40721,15 +40749,15 @@
         <v>82.411769329999998</v>
       </c>
       <c r="AN5" s="4">
-        <f>SUM(Y5,AD5:AG5,AI5:AM5)</f>
+        <f t="shared" si="0"/>
         <v>775.35714387600001</v>
       </c>
       <c r="AO5">
-        <f>AN5*AP5</f>
+        <f t="shared" si="1"/>
         <v>793.58844127459963</v>
       </c>
       <c r="AP5">
-        <f>AT5</f>
+        <f t="shared" si="2"/>
         <v>1.0235134189999999</v>
       </c>
       <c r="AS5">
@@ -40861,15 +40889,15 @@
         <v>113.9033883</v>
       </c>
       <c r="AN6" s="4">
-        <f>SUM(Y6,AD6:AG6,AI6:AM6)</f>
+        <f t="shared" si="0"/>
         <v>857.91707440300002</v>
       </c>
       <c r="AO6">
-        <f>AN6*AP6</f>
+        <f t="shared" si="1"/>
         <v>890.2650942105704</v>
       </c>
       <c r="AP6">
-        <f>AT6</f>
+        <f t="shared" si="2"/>
         <v>1.037705299</v>
       </c>
       <c r="AS6">
@@ -41001,15 +41029,15 @@
         <v>158.74782250000001</v>
       </c>
       <c r="AN7" s="4">
-        <f>SUM(Y7,AD7:AG7,AI7:AM7)</f>
+        <f t="shared" si="0"/>
         <v>936.44704737500001</v>
       </c>
       <c r="AO7">
-        <f>AN7*AP7</f>
+        <f t="shared" si="1"/>
         <v>980.32390669251311</v>
       </c>
       <c r="AP7">
-        <f>AT7</f>
+        <f t="shared" si="2"/>
         <v>1.0468546080000001</v>
       </c>
       <c r="AS7">
@@ -41141,15 +41169,15 @@
         <v>232.34208050000001</v>
       </c>
       <c r="AN8" s="4">
-        <f>SUM(Y8,AD8:AG8,AI8:AM8)</f>
+        <f t="shared" si="0"/>
         <v>1084.425143596</v>
       </c>
       <c r="AO8">
-        <f>AN8*AP8</f>
+        <f t="shared" si="1"/>
         <v>1142.948109279668</v>
       </c>
       <c r="AP8">
-        <f>AT8</f>
+        <f t="shared" si="2"/>
         <v>1.0539668099999999</v>
       </c>
       <c r="AS8">
@@ -41281,15 +41309,15 @@
         <v>282.11679349999997</v>
       </c>
       <c r="AN9" s="4">
-        <f>SUM(Y9,AD9:AG9,AI9:AM9)</f>
+        <f t="shared" si="0"/>
         <v>1229.6888505519998</v>
       </c>
       <c r="AO9">
-        <f>AN9*AP9</f>
+        <f t="shared" si="1"/>
         <v>1303.3861987553826</v>
       </c>
       <c r="AP9">
-        <f>AT9</f>
+        <f t="shared" si="2"/>
         <v>1.059931704</v>
       </c>
       <c r="AS9">
@@ -41421,15 +41449,15 @@
         <v>315.0107893</v>
       </c>
       <c r="AN10" s="4">
-        <f>SUM(Y10,AD10:AG10,AI10:AM10)</f>
+        <f t="shared" si="0"/>
         <v>1368.2766782239999</v>
       </c>
       <c r="AO10">
-        <f>AN10*AP10</f>
+        <f t="shared" si="1"/>
         <v>1451.6466341376656</v>
       </c>
       <c r="AP10">
-        <f>AT10</f>
+        <f t="shared" si="2"/>
         <v>1.0609306270000001</v>
       </c>
       <c r="AS10">
@@ -41561,15 +41589,15 @@
         <v>341.72023350000001</v>
       </c>
       <c r="AN11" s="4">
-        <f>SUM(Y11,AD11:AG11,AI11:AM11)</f>
+        <f t="shared" si="0"/>
         <v>1516.762358164</v>
       </c>
       <c r="AO11">
-        <f>AN11*AP11</f>
+        <f t="shared" si="1"/>
         <v>1611.4945208511988</v>
       </c>
       <c r="AP11">
-        <f>AT11</f>
+        <f t="shared" si="2"/>
         <v>1.062456826</v>
       </c>
       <c r="AQ11" s="4" t="s">
@@ -41708,15 +41736,15 @@
         <v>369.12254589999998</v>
       </c>
       <c r="AN12" s="4">
-        <f>SUM(Y12,AD12:AG12,AI12:AM12)</f>
+        <f t="shared" si="0"/>
         <v>1706.0710051749998</v>
       </c>
       <c r="AO12">
-        <f>AN12*AP12</f>
+        <f t="shared" si="1"/>
         <v>1812.6267850888598</v>
       </c>
       <c r="AP12">
-        <f>AP11</f>
+        <f t="shared" ref="AP12:AP46" si="3">AP11</f>
         <v>1.062456826</v>
       </c>
       <c r="AQ12" s="4" t="s">
@@ -41855,15 +41883,15 @@
         <v>399.92241309999997</v>
       </c>
       <c r="AN13" s="4">
-        <f>SUM(Y13,AD13:AG13,AI13:AM13)</f>
+        <f t="shared" si="0"/>
         <v>1954.7605077449998</v>
       </c>
       <c r="AO13">
-        <f>AN13*AP13</f>
+        <f t="shared" si="1"/>
         <v>2076.848644648901</v>
       </c>
       <c r="AP13">
-        <f>AP12</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS13">
@@ -41995,15 +42023,15 @@
         <v>417.75982649999997</v>
       </c>
       <c r="AN14" s="4">
-        <f>SUM(Y14,AD14:AG14,AI14:AM14)</f>
+        <f t="shared" si="0"/>
         <v>2239.5287972930005</v>
       </c>
       <c r="AO14">
-        <f>AN14*AP14</f>
+        <f t="shared" si="1"/>
         <v>2379.4026577075188</v>
       </c>
       <c r="AP14">
-        <f>AP13</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS14">
@@ -42135,15 +42163,15 @@
         <v>424.11393129999999</v>
       </c>
       <c r="AN15" s="4">
-        <f>SUM(Y15,AD15:AG15,AI15:AM15)</f>
+        <f t="shared" si="0"/>
         <v>2550.2633321019998</v>
       </c>
       <c r="AO15">
-        <f>AN15*AP15</f>
+        <f t="shared" si="1"/>
         <v>2709.5446852892746</v>
       </c>
       <c r="AP15">
-        <f>AP14</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS15">
@@ -42275,15 +42303,15 @@
         <v>421.74886500000002</v>
       </c>
       <c r="AN16" s="4">
-        <f>SUM(Y16,AD16:AG16,AI16:AM16)</f>
+        <f t="shared" si="0"/>
         <v>2901.4808924360004</v>
       </c>
       <c r="AO16">
-        <f>AN16*AP16</f>
+        <f t="shared" si="1"/>
         <v>3082.6981796772006</v>
       </c>
       <c r="AP16">
-        <f>AP15</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS16">
@@ -42415,15 +42443,15 @@
         <v>411.85185849999999</v>
       </c>
       <c r="AN17" s="4">
-        <f>SUM(Y17,AD17:AG17,AI17:AM17)</f>
+        <f t="shared" si="0"/>
         <v>3303.1726067869999</v>
       </c>
       <c r="AO17">
-        <f>AN17*AP17</f>
+        <f t="shared" si="1"/>
         <v>3509.478283537062</v>
       </c>
       <c r="AP17">
-        <f>AP16</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS17">
@@ -42555,15 +42583,15 @@
         <v>395.1504741</v>
       </c>
       <c r="AN18" s="4">
-        <f>SUM(Y18,AD18:AG18,AI18:AM18)</f>
+        <f t="shared" si="0"/>
         <v>3762.5847628879997</v>
       </c>
       <c r="AO18">
-        <f>AN18*AP18</f>
+        <f t="shared" si="1"/>
         <v>3997.5838647339469</v>
       </c>
       <c r="AP18">
-        <f>AP17</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS18">
@@ -42695,15 +42723,15 @@
         <v>395.45153290000002</v>
       </c>
       <c r="AN19" s="4">
-        <f>SUM(Y19,AD19:AG19,AI19:AM19)</f>
+        <f t="shared" si="0"/>
         <v>4196.1115512529996</v>
       </c>
       <c r="AO19">
-        <f>AN19*AP19</f>
+        <f t="shared" si="1"/>
         <v>4458.1873602861979</v>
       </c>
       <c r="AP19">
-        <f>AP18</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS19">
@@ -42835,15 +42863,15 @@
         <v>401.32594469999998</v>
       </c>
       <c r="AN20" s="4">
-        <f>SUM(Y20,AD20:AG20,AI20:AM20)</f>
+        <f t="shared" si="0"/>
         <v>4631.4125364950005</v>
       </c>
       <c r="AO20">
-        <f>AN20*AP20</f>
+        <f t="shared" si="1"/>
         <v>4920.6758634210873</v>
       </c>
       <c r="AP20">
-        <f>AP19</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS20">
@@ -42975,15 +43003,15 @@
         <v>408.91622999999998</v>
       </c>
       <c r="AN21" s="4">
-        <f>SUM(Y21,AD21:AG21,AI21:AM21)</f>
+        <f t="shared" si="0"/>
         <v>5083.1354075990012</v>
       </c>
       <c r="AO21">
-        <f>AN21*AP21</f>
+        <f t="shared" si="1"/>
         <v>5400.6119112858514</v>
       </c>
       <c r="AP21">
-        <f>AP20</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS21">
@@ -43115,15 +43143,15 @@
         <v>416.76710459999998</v>
       </c>
       <c r="AN22" s="4">
-        <f>SUM(Y22,AD22:AG22,AI22:AM22)</f>
+        <f t="shared" si="0"/>
         <v>5553.8829965400018</v>
       </c>
       <c r="AO22">
-        <f>AN22*AP22</f>
+        <f t="shared" si="1"/>
         <v>5900.7609004792594</v>
       </c>
       <c r="AP22">
-        <f>AP21</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS22">
@@ -43255,15 +43283,15 @@
         <v>424.49240020000002</v>
       </c>
       <c r="AN23" s="4">
-        <f>SUM(Y23,AD23:AG23,AI23:AM23)</f>
+        <f t="shared" si="0"/>
         <v>6044.9611860500008</v>
       </c>
       <c r="AO23">
-        <f>AN23*AP23</f>
+        <f t="shared" si="1"/>
         <v>6422.5102750238793</v>
       </c>
       <c r="AP23">
-        <f>AP22</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS23">
@@ -43395,15 +43423,15 @@
         <v>430.65603340000001</v>
       </c>
       <c r="AN24" s="4">
-        <f>SUM(Y24,AD24:AG24,AI24:AM24)</f>
+        <f t="shared" si="0"/>
         <v>6466.839403500001</v>
       </c>
       <c r="AO24">
-        <f>AN24*AP24</f>
+        <f t="shared" si="1"/>
         <v>6870.7376668943443</v>
       </c>
       <c r="AP24">
-        <f>AP23</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS24">
@@ -43535,15 +43563,15 @@
         <v>435.89273370000001</v>
       </c>
       <c r="AN25" s="4">
-        <f>SUM(Y25,AD25:AG25,AI25:AM25)</f>
+        <f t="shared" si="0"/>
         <v>6860.7022393999996</v>
       </c>
       <c r="AO25">
-        <f>AN25*AP25</f>
+        <f t="shared" si="1"/>
         <v>7289.1999254040156</v>
       </c>
       <c r="AP25">
-        <f>AP24</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS25">
@@ -43675,15 +43703,15 @@
         <v>440.45824229999999</v>
       </c>
       <c r="AN26" s="4">
-        <f>SUM(Y26,AD26:AG26,AI26:AM26)</f>
+        <f t="shared" si="0"/>
         <v>7241.698123539999</v>
       </c>
       <c r="AO26">
-        <f>AN26*AP26</f>
+        <f t="shared" si="1"/>
         <v>7693.9916031864632</v>
       </c>
       <c r="AP26">
-        <f>AP25</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS26">
@@ -43815,15 +43843,15 @@
         <v>444.46027140000001</v>
       </c>
       <c r="AN27" s="4">
-        <f>SUM(Y27,AD27:AG27,AI27:AM27)</f>
+        <f t="shared" si="0"/>
         <v>7614.0654352699994</v>
       </c>
       <c r="AO27">
-        <f>AN27*AP27</f>
+        <f t="shared" si="1"/>
         <v>8089.6157953132724</v>
       </c>
       <c r="AP27">
-        <f>AP26</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS27">
@@ -43955,15 +43983,15 @@
         <v>443.707652</v>
       </c>
       <c r="AN28" s="4">
-        <f>SUM(Y28,AD28:AG28,AI28:AM28)</f>
+        <f t="shared" si="0"/>
         <v>7991.4825990199997</v>
       </c>
       <c r="AO28">
-        <f>AN28*AP28</f>
+        <f t="shared" si="1"/>
         <v>8490.60523718902</v>
       </c>
       <c r="AP28">
-        <f>AP27</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS28">
@@ -44095,15 +44123,15 @@
         <v>444.24679659999998</v>
       </c>
       <c r="AN29" s="4">
-        <f>SUM(Y29,AD29:AG29,AI29:AM29)</f>
+        <f t="shared" si="0"/>
         <v>8316.2430778099988</v>
       </c>
       <c r="AO29">
-        <f>AN29*AP29</f>
+        <f t="shared" si="1"/>
         <v>8835.6492246944817</v>
       </c>
       <c r="AP29">
-        <f>AP28</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS29">
@@ -44235,15 +44263,15 @@
         <v>445.41344370000002</v>
       </c>
       <c r="AN30" s="4">
-        <f>SUM(Y30,AD30:AG30,AI30:AM30)</f>
+        <f t="shared" si="0"/>
         <v>8614.5640952400008</v>
       </c>
       <c r="AO30">
-        <f>AN30*AP30</f>
+        <f t="shared" si="1"/>
         <v>9152.6024260022532</v>
       </c>
       <c r="AP30">
-        <f>AP29</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS30">
@@ -44375,15 +44403,15 @@
         <v>446.74646280000002</v>
       </c>
       <c r="AN31" s="4">
-        <f>SUM(Y31,AD31:AG31,AI31:AM31)</f>
+        <f t="shared" si="0"/>
         <v>8899.4829112299994</v>
       </c>
       <c r="AO31">
-        <f>AN31*AP31</f>
+        <f t="shared" si="1"/>
         <v>9455.3163669066653</v>
       </c>
       <c r="AP31">
-        <f>AP30</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS31">
@@ -44515,15 +44543,15 @@
         <v>448.0514422</v>
       </c>
       <c r="AN32" s="4">
-        <f>SUM(Y32,AD32:AG32,AI32:AM32)</f>
+        <f t="shared" si="0"/>
         <v>9175.7837974799986</v>
       </c>
       <c r="AO32">
-        <f>AN32*AP32</f>
+        <f t="shared" si="1"/>
         <v>9748.8741295328255</v>
       </c>
       <c r="AP32">
-        <f>AP31</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS32">
@@ -44655,15 +44683,15 @@
         <v>449.26346890000002</v>
       </c>
       <c r="AN33" s="4">
-        <f>SUM(Y33,AD33:AG33,AI33:AM33)</f>
+        <f t="shared" si="0"/>
         <v>9445.7333775900006</v>
       </c>
       <c r="AO33">
-        <f>AN33*AP33</f>
+        <f t="shared" si="1"/>
         <v>10035.683903596531</v>
       </c>
       <c r="AP33">
-        <f>AP32</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS33">
@@ -44795,15 +44823,15 @@
         <v>443.98625370000002</v>
       </c>
       <c r="AN34" s="4">
-        <f>SUM(Y34,AD34:AG34,AI34:AM34)</f>
+        <f t="shared" si="0"/>
         <v>9514.3546186900021</v>
       </c>
       <c r="AO34">
-        <f>AN34*AP34</f>
+        <f t="shared" si="1"/>
         <v>10108.59100961182</v>
       </c>
       <c r="AP34">
-        <f>AP33</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS34">
@@ -44935,15 +44963,15 @@
         <v>436.10505849999998</v>
       </c>
       <c r="AN35" s="4">
-        <f>SUM(Y35,AD35:AG35,AI35:AM35)</f>
+        <f t="shared" si="0"/>
         <v>9495.282404829999</v>
       </c>
       <c r="AO35">
-        <f>AN35*AP35</f>
+        <f t="shared" si="1"/>
         <v>10088.327605809329</v>
       </c>
       <c r="AP35">
-        <f>AP34</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS35">
@@ -45075,15 +45103,15 @@
         <v>427.14319089999998</v>
       </c>
       <c r="AN36" s="4">
-        <f>SUM(Y36,AD36:AG36,AI36:AM36)</f>
+        <f t="shared" si="0"/>
         <v>9433.0741770500008</v>
       </c>
       <c r="AO36">
-        <f>AN36*AP36</f>
+        <f t="shared" si="1"/>
         <v>10022.234049571107</v>
       </c>
       <c r="AP36">
-        <f>AP35</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS36">
@@ -45215,15 +45243,15 @@
         <v>417.91163349999999</v>
       </c>
       <c r="AN37" s="4">
-        <f>SUM(Y37,AD37:AG37,AI37:AM37)</f>
+        <f t="shared" si="0"/>
         <v>9351.7555927600006</v>
       </c>
       <c r="AO37">
-        <f>AN37*AP37</f>
+        <f t="shared" si="1"/>
         <v>9935.8365646115399</v>
       </c>
       <c r="AP37">
-        <f>AP36</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS37">
@@ -45355,15 +45383,15 @@
         <v>408.57194270000002</v>
       </c>
       <c r="AN38" s="4">
-        <f>SUM(Y38,AD38:AG38,AI38:AM38)</f>
+        <f t="shared" si="0"/>
         <v>9255.9381379200022</v>
       </c>
       <c r="AO38">
-        <f>AN38*AP38</f>
+        <f t="shared" si="1"/>
         <v>9834.0346556668355</v>
       </c>
       <c r="AP38">
-        <f>AP37</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS38">
@@ -45495,15 +45523,15 @@
         <v>399.17299109999999</v>
       </c>
       <c r="AN39" s="4">
-        <f>SUM(Y39,AD39:AG39,AI39:AM39)</f>
+        <f t="shared" si="0"/>
         <v>9147.7198885199996</v>
       </c>
       <c r="AO39">
-        <f>AN39*AP39</f>
+        <f t="shared" si="1"/>
         <v>9719.0574378940328</v>
       </c>
       <c r="AP39">
-        <f>AP38</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS39">
@@ -45635,15 +45663,15 @@
         <v>389.7501274</v>
       </c>
       <c r="AN40" s="4">
-        <f>SUM(Y40,AD40:AG40,AI40:AM40)</f>
+        <f t="shared" si="0"/>
         <v>9028.9572442829995</v>
       </c>
       <c r="AO40">
-        <f>AN40*AP40</f>
+        <f t="shared" si="1"/>
         <v>9592.8772558506225</v>
       </c>
       <c r="AP40">
-        <f>AP39</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS40">
@@ -45775,15 +45803,15 @@
         <v>380.33227369999997</v>
       </c>
       <c r="AN41" s="4">
-        <f>SUM(Y41,AD41:AG41,AI41:AM41)</f>
+        <f t="shared" si="0"/>
         <v>8901.3077483039997</v>
       </c>
       <c r="AO41">
-        <f>AN41*AP41</f>
+        <f t="shared" si="1"/>
         <v>9457.2551775122738</v>
       </c>
       <c r="AP41">
-        <f>AP40</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS41">
@@ -45915,15 +45943,15 @@
         <v>370.9427819</v>
       </c>
       <c r="AN42" s="4">
-        <f>SUM(Y42,AD42:AG42,AI42:AM42)</f>
+        <f t="shared" si="0"/>
         <v>8766.2161157049995</v>
       </c>
       <c r="AO42">
-        <f>AN42*AP42</f>
+        <f t="shared" si="1"/>
         <v>9313.7261503219834</v>
       </c>
       <c r="AP42">
-        <f>AP41</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS42">
@@ -46055,15 +46083,15 @@
         <v>361.6014404</v>
       </c>
       <c r="AN43" s="4">
-        <f>SUM(Y43,AD43:AG43,AI43:AM43)</f>
+        <f t="shared" si="0"/>
         <v>8624.9606135760005</v>
       </c>
       <c r="AO43">
-        <f>AN43*AP43</f>
+        <f t="shared" si="1"/>
         <v>9163.6482778749705</v>
       </c>
       <c r="AP43">
-        <f>AP42</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS43">
@@ -46195,15 +46223,15 @@
         <v>352.32624029999999</v>
       </c>
       <c r="AN44" s="4">
-        <f>SUM(Y44,AD44:AG44,AI44:AM44)</f>
+        <f t="shared" si="0"/>
         <v>8478.7034906360004</v>
       </c>
       <c r="AO44">
-        <f>AN44*AP44</f>
+        <f t="shared" si="1"/>
         <v>9008.2563992562464</v>
       </c>
       <c r="AP44">
-        <f>AP43</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS44">
@@ -46335,15 +46363,15 @@
         <v>343.13439340000002</v>
       </c>
       <c r="AN45" s="4">
-        <f>SUM(Y45,AD45:AG45,AI45:AM45)</f>
+        <f t="shared" si="0"/>
         <v>8328.5248682509991</v>
       </c>
       <c r="AO45">
-        <f>AN45*AP45</f>
+        <f t="shared" si="1"/>
         <v>8848.6980967840245</v>
       </c>
       <c r="AP45">
-        <f>AP44</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS45">
@@ -46475,15 +46503,15 @@
         <v>334.04274939999999</v>
       </c>
       <c r="AN46" s="4">
-        <f>SUM(Y46,AD46:AG46,AI46:AM46)</f>
+        <f t="shared" si="0"/>
         <v>8175.4406629289997</v>
       </c>
       <c r="AO46">
-        <f>AN46*AP46</f>
+        <f t="shared" si="1"/>
         <v>8686.052737886881</v>
       </c>
       <c r="AP46">
-        <f>AP45</f>
+        <f t="shared" si="3"/>
         <v>1.062456826</v>
       </c>
       <c r="AS46">
@@ -46760,7 +46788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AT33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51378,7 +51406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52076,7 +52104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
@@ -54293,7 +54321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:BA50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
